--- a/benchTree/bench tree.xlsx
+++ b/benchTree/bench tree.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{53FCEAB2-7BB6-4727-8774-1B0F2EC72F76}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7814BADA-3A7D-4A60-826E-CB49CC06BC04}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>B tree insertion</t>
   </si>
@@ -32,22 +32,47 @@
   </si>
   <si>
     <t>N/trial</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -75,15 +100,56 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="13">
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -94,6 +160,48 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3E43DD5C-D316-4228-BF06-C264443A2BD7}" name="Table1" displayName="Table1" ref="A3:L11" totalsRowShown="0">
+  <autoFilter ref="A3:L11" xr:uid="{D0345C9A-8E68-481E-9A4F-97B127765780}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{BB3B0B93-B694-4137-AB26-45B426A54247}" name="N/trial" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{8C850B01-ACFB-48A6-81FC-060E9210528C}" name="0" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{F904C784-48F4-4638-833C-84A54C051366}" name="1" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{C0AEDFEE-6998-42DC-A3F8-26E5AD6896C1}" name="2" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{3ABDAD48-A90E-400D-88B0-6127682F0DBA}" name="3" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{B1695FC4-DD97-4B97-BA8E-87F81CF31DD9}" name="4" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{DCD8BB59-25F5-408E-B23A-884E2AC74699}" name="5" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{AFD2FF82-5747-405F-B49A-2B799DB8E6F2}" name="6" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{675BB2F3-0BA7-4D85-AF95-32883E501D38}" name="7" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{4642C4D6-10A5-41BB-A4EC-7E8524E3BA50}" name="8" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{FC7AD73D-0425-441E-89F4-AF4D419051A8}" name="9" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{58CF616C-87DD-4776-884B-45B96E8C6146}" name="Average" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AC5B0C37-0C1B-43D5-826B-E38C08AD456A}" name="Table2" displayName="Table2" ref="A19:L27" totalsRowShown="0">
+  <autoFilter ref="A19:L27" xr:uid="{7F61AD3A-D942-4DF8-8C8F-1C62DF97C5E6}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{314C22EA-0C7C-40FB-BB36-7A8BD6620CF9}" name="N/trial" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{27EC033A-4514-4E91-ACE3-0A80B05E5163}" name="0"/>
+    <tableColumn id="3" xr3:uid="{D2ED3DEE-00AA-403E-B5B2-120B63E0A858}" name="1"/>
+    <tableColumn id="4" xr3:uid="{9EDC1A02-9510-450A-8A2F-5F0093E0566A}" name="2"/>
+    <tableColumn id="5" xr3:uid="{A3BFE95B-A46E-464D-BE02-26CBFD93412C}" name="3"/>
+    <tableColumn id="6" xr3:uid="{7E39EB54-F04A-4D64-AC6F-D74787AE38ED}" name="4"/>
+    <tableColumn id="7" xr3:uid="{996D844D-72E7-4592-8BDF-2AE8E7153C1B}" name="5"/>
+    <tableColumn id="8" xr3:uid="{712D8AE4-FA82-408A-9BA8-F2987D78945F}" name="6"/>
+    <tableColumn id="9" xr3:uid="{FC673FA1-04D0-454E-A097-55C24A2CE8D7}" name="7"/>
+    <tableColumn id="10" xr3:uid="{ED0EF672-796A-46BB-8880-5E3C0CCCA9FC}" name="8"/>
+    <tableColumn id="11" xr3:uid="{21B130DA-0E68-4074-B7CC-27ACC48E9249}" name="9"/>
+    <tableColumn id="12" xr3:uid="{D29B96C7-B0F4-447D-8187-6D142B2CB427}" name="Average"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -361,13 +469,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="A3:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -379,35 +488,35 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="G3">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="H3">
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="I3">
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="J3">
+      <c r="F3" t="s">
         <v>8</v>
       </c>
-      <c r="K3">
+      <c r="G3" t="s">
         <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" t="s">
+        <v>13</v>
       </c>
       <c r="L3" t="s">
         <v>1</v>
@@ -417,37 +526,37 @@
       <c r="A4">
         <v>10</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>875900</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>230200</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>145500</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>156500</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>227500</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>159400</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>151700</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>197200</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>134300</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <v>130600</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="3">
         <v>240880</v>
       </c>
     </row>
@@ -455,276 +564,276 @@
       <c r="A5">
         <v>100</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>5555500</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>2645300</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>2863100</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>3951800</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>1366200</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>2368200</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <v>983700</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <v>886000</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="3">
         <v>646300</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <v>779900</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="3">
         <v>2204600</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>1000</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>26360300</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>5912600</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>17073700</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>11326000</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>13359100</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>5462200</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <v>5632800</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <v>13566400</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="3">
         <v>15161300</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <v>10144800</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="3">
         <v>12399920</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>10000</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>178165100</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>74769400</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>44985100</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
         <v>21459100</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="3">
         <v>20859200</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>36777500</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <v>154466700</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <v>52386800</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="3">
         <v>32202700</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="3">
         <v>24782500</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="3">
         <v>64085410</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>100000</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>610810000</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>235832500</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>185434200</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
         <v>148511300</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="3">
         <v>135870700</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>169909500</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <v>121102400</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <v>130757800</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="3">
         <v>151063100</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <v>146077500</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="3">
         <v>203536900</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>250000</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>1736296300</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>533470800</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>601115500</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>606428400</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>530429800</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>655777700</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <v>431614900</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <v>404644200</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="3">
         <v>514957000</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="3">
         <v>402703900</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="3">
         <v>641743850</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>500000</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>2414155900</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>1297792900</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>1358346100</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>1068822400</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>1057160400</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>986078200</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="3">
         <v>860280900</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <v>960560100</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="3">
         <v>1008463900</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="3">
         <v>943955100</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="3">
         <v>1195561590</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>750000</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>3099683800</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>2173296300</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>1888524900</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>1564157600</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <v>1858084400</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="3">
         <v>1659904900</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="3">
         <v>2189846000</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="3">
         <v>2130988100</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="3">
         <v>2073710200</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="3">
         <v>1968404400</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="3">
         <v>2060660060</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
+      <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
+      <c r="A13" s="1"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
+      <c r="A14" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -735,35 +844,35 @@
       <c r="A19" t="s">
         <v>3</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
+      <c r="B19" t="s">
         <v>4</v>
       </c>
-      <c r="G19">
+      <c r="C19" t="s">
         <v>5</v>
       </c>
-      <c r="H19">
+      <c r="D19" t="s">
         <v>6</v>
       </c>
-      <c r="I19">
+      <c r="E19" t="s">
         <v>7</v>
       </c>
-      <c r="J19">
+      <c r="F19" t="s">
         <v>8</v>
       </c>
-      <c r="K19">
+      <c r="G19" t="s">
         <v>9</v>
+      </c>
+      <c r="H19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" t="s">
+        <v>13</v>
       </c>
       <c r="L19" t="s">
         <v>1</v>
@@ -803,8 +912,7 @@
       <c r="K20">
         <v>86100</v>
       </c>
-      <c r="L20" s="1">
-        <f>AVERAGE(B20:K20)</f>
+      <c r="L20" s="2">
         <v>192470</v>
       </c>
     </row>
@@ -842,13 +950,12 @@
       <c r="K21">
         <v>922500</v>
       </c>
-      <c r="L21" s="1">
-        <f>AVERAGE(B21:K21)</f>
+      <c r="L21" s="2">
         <v>2016380</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="A22" s="1">
         <v>1000</v>
       </c>
       <c r="B22">
@@ -886,7 +993,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="A23" s="1">
         <v>10000</v>
       </c>
       <c r="B23">
@@ -924,7 +1031,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="A24" s="1">
         <v>100000</v>
       </c>
       <c r="B24">
@@ -962,7 +1069,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+      <c r="A25" s="1">
         <v>250000</v>
       </c>
       <c r="B25">
@@ -1000,7 +1107,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+      <c r="A26" s="1">
         <v>500000</v>
       </c>
       <c r="B26">
@@ -1038,7 +1145,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+      <c r="A27" s="1">
         <v>750000</v>
       </c>
       <c r="B27">
@@ -1076,10 +1183,14 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
+      <c r="A28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>